--- a/public/restaurant_products.xlsx
+++ b/public/restaurant_products.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renzo\01_SISTEMAS\qumara\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C6F590-8C4C-4803-BE24-79F454375723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38745F3-242A-4A35-8DDA-CEACB42BDE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
     <sheet name="Categories" sheetId="2" r:id="rId2"/>
+    <sheet name="Deliveries" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Almuerzos">'Categories'!$E$2:$E$4</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="94">
   <si>
     <t>ID</t>
   </si>
@@ -278,6 +279,39 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Trujillo</t>
+  </si>
+  <si>
+    <t>La Esperanza</t>
+  </si>
+  <si>
+    <t>Victor Larco</t>
+  </si>
+  <si>
+    <t>El Porvenir</t>
+  </si>
+  <si>
+    <t>30-45 min</t>
+  </si>
+  <si>
+    <t>40-50 min</t>
+  </si>
+  <si>
+    <t>35-45 min</t>
+  </si>
+  <si>
+    <t>50-60 min</t>
+  </si>
+  <si>
+    <t>Distrito</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
   </si>
 </sst>
 </file>
@@ -607,6 +641,18 @@
 </table>
 </file>
 
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D13555EA-863B-40BE-BDAB-D13FA2CF7439}" name="Tabla3" displayName="Tabla3" ref="A1:C5" totalsRowShown="0">
+  <autoFilter ref="A1:C5" xr:uid="{D13555EA-863B-40BE-BDAB-D13FA2CF7439}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E258574D-A444-49D6-8FAA-9E91ADE9D753}" name="Distrito"/>
+    <tableColumn id="2" xr3:uid="{D4A543A0-3CD1-4D1F-B89F-BC1DCFC414A7}" name="Precio"/>
+    <tableColumn id="3" xr3:uid="{8CA7D91D-5C04-4FB7-A4B1-4C6660544F9E}" name="Tiempo"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -894,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1758,4 +1804,82 @@
     <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBF831B-95AE-42BD-BA3B-F71C2ECBD330}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/public/restaurant_products.xlsx
+++ b/public/restaurant_products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renzo\01_SISTEMAS\qumara\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38745F3-242A-4A35-8DDA-CEACB42BDE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED7D7FE-376E-4005-ABCB-F98AB6FEF37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="96">
   <si>
     <t>ID</t>
   </si>
@@ -312,13 +312,19 @@
   </si>
   <si>
     <t>Tiempo</t>
+  </si>
+  <si>
+    <t>PedidoMinimo</t>
+  </si>
+  <si>
+    <t>EnvioGratis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +334,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -402,12 +416,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,12 +657,14 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D13555EA-863B-40BE-BDAB-D13FA2CF7439}" name="Tabla3" displayName="Tabla3" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5" xr:uid="{D13555EA-863B-40BE-BDAB-D13FA2CF7439}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D13555EA-863B-40BE-BDAB-D13FA2CF7439}" name="Tabla3" displayName="Tabla3" ref="A1:E5" totalsRowShown="0">
+  <autoFilter ref="A1:E5" xr:uid="{D13555EA-863B-40BE-BDAB-D13FA2CF7439}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{E258574D-A444-49D6-8FAA-9E91ADE9D753}" name="Distrito"/>
     <tableColumn id="2" xr3:uid="{D4A543A0-3CD1-4D1F-B89F-BC1DCFC414A7}" name="Precio"/>
     <tableColumn id="3" xr3:uid="{8CA7D91D-5C04-4FB7-A4B1-4C6660544F9E}" name="Tiempo"/>
+    <tableColumn id="4" xr3:uid="{ACE214F5-0576-4984-9BF6-6B1ADE413608}" name="PedidoMinimo"/>
+    <tableColumn id="5" xr3:uid="{2BA92A66-A976-4DA9-8423-DEC527E0A0FC}" name="EnvioGratis"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1808,19 +1825,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBF831B-95AE-42BD-BA3B-F71C2ECBD330}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>91</v>
       </c>
@@ -1830,8 +1849,14 @@
       <c r="C1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -1841,39 +1866,64 @@
       <c r="C2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="D3">
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="D4">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>86</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>90</v>
       </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/restaurant_products.xlsx
+++ b/public/restaurant_products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renzo\01_SISTEMAS\qumara\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED7D7FE-376E-4005-ABCB-F98AB6FEF37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AC969A-B7CD-4406-887F-B606CBA8B11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -19,18 +19,31 @@
   </sheets>
   <definedNames>
     <definedName name="Almuerzos">'Categories'!$E$2:$E$4</definedName>
+    <definedName name="Artesanales">'Categories'!$K$2:$K$5</definedName>
     <definedName name="Bebidas">'Categories'!$I$2:$I$6</definedName>
     <definedName name="Category">categories[Category]</definedName>
     <definedName name="Desayunos">'Categories'!$C$2:$C$6</definedName>
     <definedName name="Hamburguesas">'Categories'!$G$2:$G$6</definedName>
-    <definedName name="Productos_Artesanales">'Categories'!$K$2:$K$5</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="130">
   <si>
     <t>ID</t>
   </si>
@@ -218,9 +231,6 @@
     <t>Almuerzos</t>
   </si>
   <si>
-    <t>Productos Artesanales</t>
-  </si>
-  <si>
     <t>Jugos Naturales</t>
   </si>
   <si>
@@ -318,6 +328,111 @@
   </si>
   <si>
     <t>EnvioGratis</t>
+  </si>
+  <si>
+    <t>Mantequilla de mani</t>
+  </si>
+  <si>
+    <t>Artesanales</t>
+  </si>
+  <si>
+    <t>Kefir</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Mezcla refrescante de piña, manzana, espinaca y limón. Energía natural para empezar el día.</t>
+  </si>
+  <si>
+    <t>Papaya fresca licuada al instante, dulce, ligera y llena de fibra.</t>
+  </si>
+  <si>
+    <t>Piña dorada recién licuada, ideal para hidratar y refrescar.</t>
+  </si>
+  <si>
+    <t>Combinación perfecta de frutas frescas para un sabor balanceado y nutritivo.</t>
+  </si>
+  <si>
+    <t>Manzana verde natural, sin azúcar añadida. Suave, dulce y antioxidante.</t>
+  </si>
+  <si>
+    <t>Hamburguesa tradicional con carne jugosa, lechuga, tomate y salsas artesanales.</t>
+  </si>
+  <si>
+    <t>Nuestra hamburguesa estrella: carne doble, queso fundido y salsa especial Qumara.</t>
+  </si>
+  <si>
+    <t>Carne a la parrilla con piña a la plancha, queso y salsas de casa. Dulce y salada.</t>
+  </si>
+  <si>
+    <t>Carne a la parrilla, queso cheddar, tocino crocante y mayonesa americana.</t>
+  </si>
+  <si>
+    <t>Carne a la parrilla con queso, champiñones salteados y salsa ahumada.</t>
+  </si>
+  <si>
+    <t>Hamburguesa de sabor intenso con nuestra mezcla especial Qumara y queso derretido.</t>
+  </si>
+  <si>
+    <t>Hamburguesa XL con doble carne, doble queso y extra de salsas. Solo para valientes.</t>
+  </si>
+  <si>
+    <t>Versión grande de la clásica Qumara: carne generosa, queso, verduras y salsas.</t>
+  </si>
+  <si>
+    <t>Filete de pechuga jugoso a la plancha con queso fundido encima.</t>
+  </si>
+  <si>
+    <t>Pechuga de pollo sazonada y cocinada al grill, ligera y deliciosa.</t>
+  </si>
+  <si>
+    <t>Pan artesanal con chorizo dorado y huevo jugoso, perfecto para empezar el día.</t>
+  </si>
+  <si>
+    <t>Chorizo a la plancha con queso derretido en pan crocante.</t>
+  </si>
+  <si>
+    <t>Clásico argentino: chorizo al grill con salsas caseras en pan fresco.</t>
+  </si>
+  <si>
+    <t>Huevos suaves y cremosos al estilo casero.</t>
+  </si>
+  <si>
+    <t>Pechuga de pollo cocida y deshilachada, ligera y llena de sabor.</t>
+  </si>
+  <si>
+    <t>Pan fresco con palta cremosa y un toque de limón. Simple y perfecto.</t>
+  </si>
+  <si>
+    <t>Pan suave acompañado de aceituna negra picada, ideal para desayunos.</t>
+  </si>
+  <si>
+    <t>Pan integral con pollo a la plancha, ideal para un desayuno saludable.</t>
+  </si>
+  <si>
+    <t>Pan integral, pollo al grill, verduras frescas y salsas ligeras.</t>
+  </si>
+  <si>
+    <t>Omelette esponjoso relleno a elección, cocinado al punto perfecto.</t>
+  </si>
+  <si>
+    <t>Pollo en salsa cremosa de champiñones, suave y lleno de sabor.</t>
+  </si>
+  <si>
+    <t>Pechuga de pollo horneada con queso gratinado y especias finas.</t>
+  </si>
+  <si>
+    <t>Combinación dulce y salada: pollo a la plancha con duraznos en almíbar.</t>
+  </si>
+  <si>
+    <t>Pan caliente con jamón, queso y tomate. Sencillo, crujiente y delicioso.</t>
+  </si>
+  <si>
+    <t>Bebida probiótica artesanal, fermentada naturalmente. Suave y muy saludable.</t>
+  </si>
+  <si>
+    <t>Mantequilla de maní 100% natural, sin azúcar. Cremosa, energética y casera.</t>
   </si>
 </sst>
 </file>
@@ -582,11 +697,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B73F4A-D1AE-41B4-9E81-11AEB51DB0FF}" name="products" displayName="products" ref="A1:G30" totalsRowShown="0">
-  <autoFilter ref="A1:G30" xr:uid="{96B73F4A-D1AE-41B4-9E81-11AEB51DB0FF}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B73F4A-D1AE-41B4-9E81-11AEB51DB0FF}" name="products" displayName="products" ref="A1:H32" totalsRowShown="0">
+  <autoFilter ref="A1:H32" xr:uid="{96B73F4A-D1AE-41B4-9E81-11AEB51DB0FF}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{A08591F7-B6F9-4A5A-A0A1-053291B7ECBE}" name="ID"/>
     <tableColumn id="2" xr3:uid="{18FB9C7A-D593-4960-B069-9A3D4FEF7829}" name="Name"/>
+    <tableColumn id="9" xr3:uid="{6F82E5EA-89A7-4387-BA82-A0FEAD172692}" name="Description"/>
     <tableColumn id="3" xr3:uid="{74A53CED-EA8F-4638-AE3D-5960A8FC0F8B}" name="Price"/>
     <tableColumn id="4" xr3:uid="{2BBC10A6-5D53-4F54-AB7D-E541E2F30D0C}" name="Category"/>
     <tableColumn id="5" xr3:uid="{C6D4E8CE-ABB1-48A0-949A-31943B6CF4E8}" name="Subcategory"/>
@@ -650,7 +766,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{421C3244-B2C7-42FB-9852-1E68D2B0CAF1}" name="Tabla9" displayName="Tabla9" ref="K1:K5" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="K1:K5" xr:uid="{421C3244-B2C7-42FB-9852-1E68D2B0CAF1}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{61EACDB3-D89F-4D5A-8071-B999F81F767E}" name="Productos Artesanales"/>
+    <tableColumn id="1" xr3:uid="{61EACDB3-D89F-4D5A-8071-B999F81F767E}" name="Artesanales"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -955,21 +1071,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -977,700 +1094,842 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6">
         <v>6.5</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7">
         <v>8.5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>21</v>
       </c>
-      <c r="G7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8">
         <v>8.5</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>20</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="G8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>25</v>
       </c>
-      <c r="G9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>19</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>20</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>25</v>
       </c>
-      <c r="G10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11">
         <v>12</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>19</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>25</v>
       </c>
-      <c r="G11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12">
         <v>12</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>19</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>20</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>25</v>
       </c>
-      <c r="G12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13">
         <v>15</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>19</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>31</v>
       </c>
-      <c r="G13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>19</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>30</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>25</v>
       </c>
-      <c r="G14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15">
         <v>8</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>19</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>34</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>35</v>
       </c>
-      <c r="G15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16">
         <v>10</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>19</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>34</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>37</v>
       </c>
-      <c r="G16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>38</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17">
         <v>8</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>19</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>39</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>40</v>
       </c>
-      <c r="G17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>41</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18">
         <v>8</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>19</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>39</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>42</v>
       </c>
-      <c r="G18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
       </c>
-      <c r="C19">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
         <v>19</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>39</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>44</v>
       </c>
-      <c r="G19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20">
         <v>3.5</v>
       </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" t="s">
         <v>46</v>
       </c>
-      <c r="G20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>47</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21">
         <v>3.5</v>
       </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" t="s">
         <v>25</v>
       </c>
-      <c r="G21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>48</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22">
         <v>3</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" t="s">
         <v>25</v>
       </c>
-      <c r="G22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>49</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23">
         <v>2.5</v>
       </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" t="s">
         <v>25</v>
       </c>
-      <c r="G23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>50</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24">
         <v>10</v>
       </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" t="s">
         <v>51</v>
       </c>
-      <c r="G24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>52</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25">
         <v>10</v>
       </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" t="s">
         <v>53</v>
       </c>
-      <c r="G25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26">
         <v>8</v>
       </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" t="s">
         <v>25</v>
       </c>
-      <c r="G26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>55</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27">
         <v>8</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" t="s">
         <v>25</v>
       </c>
-      <c r="G27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
       </c>
-      <c r="C28">
-        <v>7</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28">
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" t="s">
         <v>57</v>
       </c>
-      <c r="G28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
       </c>
-      <c r="C29">
-        <v>7</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29">
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" t="s">
         <v>59</v>
       </c>
-      <c r="G29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>60</v>
       </c>
-      <c r="C30">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30">
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" t="s">
         <v>25</v>
       </c>
-      <c r="G30" t="s">
-        <v>81</v>
+      <c r="H30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{DF6DEC59-681C-4ED0-91CF-CDB05C6796CF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{DF6DEC59-681C-4ED0-91CF-CDB05C6796CF}">
       <formula1>"Category"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D30" xr:uid="{4B29A85E-32BB-4B4B-99D0-6EAC48A1D0F5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E32" xr:uid="{4B29A85E-32BB-4B4B-99D0-6EAC48A1D0F5}">
       <formula1>Category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E30" xr:uid="{7590CC46-41BA-4AB6-A08C-A3441B952A3E}">
-      <formula1>INDIRECT($D2)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32" xr:uid="{7590CC46-41BA-4AB6-A08C-A3441B952A3E}">
+      <formula1>INDIRECT($E2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G30 G31:G1048576" xr:uid="{D53AE1D9-A9CA-4E92-B17D-F8FEDB40D583}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{D53AE1D9-A9CA-4E92-B17D-F8FEDB40D583}">
       <formula1>"ACTIVO,INACTIVO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1686,7 +1945,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="K1" sqref="K1:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1716,7 +1975,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1724,19 +1983,19 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1744,19 +2003,19 @@
         <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1764,19 +2023,19 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
         <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1784,30 +2043,30 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
         <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1827,7 +2086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBF831B-95AE-42BD-BA3B-F71C2ECBD330}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -1841,30 +2100,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
         <v>91</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>92</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>93</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>94</v>
-      </c>
-      <c r="E1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2">
         <v>25</v>
@@ -1875,13 +2134,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>35</v>
@@ -1892,13 +2151,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>35</v>
@@ -1909,13 +2168,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>40</v>

--- a/public/restaurant_products.xlsx
+++ b/public/restaurant_products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renzo\01_SISTEMAS\qumara\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AC969A-B7CD-4406-887F-B606CBA8B11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7D8B61-1BB9-47BC-B294-779DEDF2B6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1877,7 +1877,7 @@
         <v>128</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
         <v>96</v>

--- a/public/restaurant_products.xlsx
+++ b/public/restaurant_products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renzo\01_SISTEMAS\qumara\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7D8B61-1BB9-47BC-B294-779DEDF2B6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C54062-5564-41AB-879A-F6D3D4DEC310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -1073,7 +1073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -1877,7 +1877,7 @@
         <v>128</v>
       </c>
       <c r="D31">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E31" t="s">
         <v>96</v>
@@ -2086,8 +2086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBF831B-95AE-42BD-BA3B-F71C2ECBD330}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2120,7 +2120,7 @@
         <v>82</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>86</v>
@@ -2137,7 +2137,7 @@
         <v>84</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>88</v>

--- a/public/restaurant_products.xlsx
+++ b/public/restaurant_products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renzo\01_SISTEMAS\qumara\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C54062-5564-41AB-879A-F6D3D4DEC310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39605D3A-0DFB-476B-88C0-33DC5CF4FC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="132">
   <si>
     <t>ID</t>
   </si>
@@ -433,6 +433,12 @@
   </si>
   <si>
     <t>Mantequilla de maní 100% natural, sin azúcar. Cremosa, energética y casera.</t>
+  </si>
+  <si>
+    <t>Tallarin saltado</t>
+  </si>
+  <si>
+    <t>Este tallarin es rico</t>
   </si>
 </sst>
 </file>
@@ -697,8 +703,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B73F4A-D1AE-41B4-9E81-11AEB51DB0FF}" name="products" displayName="products" ref="A1:H32" totalsRowShown="0">
-  <autoFilter ref="A1:H32" xr:uid="{96B73F4A-D1AE-41B4-9E81-11AEB51DB0FF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B73F4A-D1AE-41B4-9E81-11AEB51DB0FF}" name="products" displayName="products" ref="A1:H33" totalsRowShown="0">
+  <autoFilter ref="A1:H33" xr:uid="{96B73F4A-D1AE-41B4-9E81-11AEB51DB0FF}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{A08591F7-B6F9-4A5A-A0A1-053291B7ECBE}" name="ID"/>
     <tableColumn id="2" xr3:uid="{18FB9C7A-D593-4960-B069-9A3D4FEF7829}" name="Name"/>
@@ -1071,17 +1077,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
   </cols>
@@ -1911,10 +1917,33 @@
       <c r="F32" t="s">
         <v>76</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" t="s">
         <v>25</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H33" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1923,10 +1952,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{DF6DEC59-681C-4ED0-91CF-CDB05C6796CF}">
       <formula1>"Category"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E32" xr:uid="{4B29A85E-32BB-4B4B-99D0-6EAC48A1D0F5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E33" xr:uid="{4B29A85E-32BB-4B4B-99D0-6EAC48A1D0F5}">
       <formula1>Category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32" xr:uid="{7590CC46-41BA-4AB6-A08C-A3441B952A3E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F33" xr:uid="{7590CC46-41BA-4AB6-A08C-A3441B952A3E}">
       <formula1>INDIRECT($E2)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{D53AE1D9-A9CA-4E92-B17D-F8FEDB40D583}">
@@ -1945,7 +1974,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K5"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2086,7 +2115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBF831B-95AE-42BD-BA3B-F71C2ECBD330}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/public/restaurant_products.xlsx
+++ b/public/restaurant_products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renzo\01_SISTEMAS\qumara\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39605D3A-0DFB-476B-88C0-33DC5CF4FC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F307AE1B-4175-4824-A514-1E3012BC7928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Deliveries" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Almuerzos">'Categories'!$E$2:$E$4</definedName>
+    <definedName name="Almuerzos">'Categories'!$E$2:$E$5</definedName>
     <definedName name="Artesanales">'Categories'!$K$2:$K$5</definedName>
     <definedName name="Bebidas">'Categories'!$I$2:$I$6</definedName>
     <definedName name="Category">categories[Category]</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="136">
   <si>
     <t>ID</t>
   </si>
@@ -439,6 +439,18 @@
   </si>
   <si>
     <t>Este tallarin es rico</t>
+  </si>
+  <si>
+    <t>Dietas</t>
+  </si>
+  <si>
+    <t>Filete de pollo en salsa chimichurri</t>
+  </si>
+  <si>
+    <t>Este filte tiene salsa..</t>
+  </si>
+  <si>
+    <t>Brochetas de pollo con camote</t>
   </si>
 </sst>
 </file>
@@ -703,8 +715,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B73F4A-D1AE-41B4-9E81-11AEB51DB0FF}" name="products" displayName="products" ref="A1:H33" totalsRowShown="0">
-  <autoFilter ref="A1:H33" xr:uid="{96B73F4A-D1AE-41B4-9E81-11AEB51DB0FF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B73F4A-D1AE-41B4-9E81-11AEB51DB0FF}" name="products" displayName="products" ref="A1:H35" totalsRowShown="0">
+  <autoFilter ref="A1:H35" xr:uid="{96B73F4A-D1AE-41B4-9E81-11AEB51DB0FF}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{A08591F7-B6F9-4A5A-A0A1-053291B7ECBE}" name="ID"/>
     <tableColumn id="2" xr3:uid="{18FB9C7A-D593-4960-B069-9A3D4FEF7829}" name="Name"/>
@@ -739,8 +751,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{31659977-407B-496C-93C1-77F39441F2BF}" name="Tabla6" displayName="Tabla6" ref="E1:E4" totalsRowShown="0">
-  <autoFilter ref="E1:E4" xr:uid="{31659977-407B-496C-93C1-77F39441F2BF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{31659977-407B-496C-93C1-77F39441F2BF}" name="Tabla6" displayName="Tabla6" ref="E1:E5" totalsRowShown="0">
+  <autoFilter ref="E1:E5" xr:uid="{31659977-407B-496C-93C1-77F39441F2BF}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{777C594A-136F-4E31-BA47-2F8C466D3127}" name="Almuerzos"/>
   </tableColumns>
@@ -1077,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1947,15 +1959,58 @@
         <v>80</v>
       </c>
     </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" t="s">
+        <v>132</v>
+      </c>
+      <c r="H34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" t="s">
+        <v>132</v>
+      </c>
+      <c r="H35" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{DF6DEC59-681C-4ED0-91CF-CDB05C6796CF}">
       <formula1>"Category"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E33" xr:uid="{4B29A85E-32BB-4B4B-99D0-6EAC48A1D0F5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35" xr:uid="{4B29A85E-32BB-4B4B-99D0-6EAC48A1D0F5}">
       <formula1>Category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F33" xr:uid="{7590CC46-41BA-4AB6-A08C-A3441B952A3E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F35" xr:uid="{7590CC46-41BA-4AB6-A08C-A3441B952A3E}">
       <formula1>INDIRECT($E2)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{D53AE1D9-A9CA-4E92-B17D-F8FEDB40D583}">
@@ -1974,7 +2029,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2073,6 +2128,9 @@
       </c>
       <c r="C5" t="s">
         <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>132</v>
       </c>
       <c r="G5" t="s">
         <v>30</v>

--- a/public/restaurant_products.xlsx
+++ b/public/restaurant_products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renzo\01_SISTEMAS\qumara\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F307AE1B-4175-4824-A514-1E3012BC7928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167C1148-72A2-4E5F-BB26-0B7D60C58266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="138">
   <si>
     <t>ID</t>
   </si>
@@ -451,6 +451,12 @@
   </si>
   <si>
     <t>Brochetas de pollo con camote</t>
+  </si>
+  <si>
+    <t>Fiscalia</t>
+  </si>
+  <si>
+    <t>1 pm llega el menu</t>
   </si>
 </sst>
 </file>
@@ -791,8 +797,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D13555EA-863B-40BE-BDAB-D13FA2CF7439}" name="Tabla3" displayName="Tabla3" ref="A1:E5" totalsRowShown="0">
-  <autoFilter ref="A1:E5" xr:uid="{D13555EA-863B-40BE-BDAB-D13FA2CF7439}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D13555EA-863B-40BE-BDAB-D13FA2CF7439}" name="Tabla3" displayName="Tabla3" ref="A1:E6" totalsRowShown="0">
+  <autoFilter ref="A1:E6" xr:uid="{D13555EA-863B-40BE-BDAB-D13FA2CF7439}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{E258574D-A444-49D6-8FAA-9E91ADE9D753}" name="Distrito"/>
     <tableColumn id="2" xr3:uid="{D4A543A0-3CD1-4D1F-B89F-BC1DCFC414A7}" name="Precio"/>
@@ -1091,7 +1097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -2171,10 +2177,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBF831B-95AE-42BD-BA3B-F71C2ECBD330}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2271,6 +2277,23 @@
       </c>
       <c r="F5" s="5"/>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/public/restaurant_products.xlsx
+++ b/public/restaurant_products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renzo\01_SISTEMAS\qumara\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167C1148-72A2-4E5F-BB26-0B7D60C58266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69AC2FA-702A-48A7-986E-210C623933B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2180,7 +2180,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2210,47 +2210,47 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>35</v>
@@ -2261,37 +2261,37 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
